--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TUC\Dynamic_Programming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mono\Desktop\Github projects\Shortest-Path-Dynamic-Programming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B767F15-57E1-4999-B248-AE694D0F28E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6503259D-33D8-4DE4-8240-DEA3AD47A5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1620" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,22 +58,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -93,9 +87,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -133,9 +127,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -168,26 +162,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -220,26 +197,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -413,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,292 +384,283 @@
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+    <row r="1" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>4</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4"/>
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="B5" s="1">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="B6" s="1">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3">
-        <v>11</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="B7" s="1">
-        <v>7</v>
-      </c>
-      <c r="C7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="3">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>-1</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B11" s="1">
         <v>8</v>
       </c>
-      <c r="C8" s="3">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="C11" s="1">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="D9" s="3">
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="B15" s="1">
         <v>6</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>16</v>
-      </c>
-      <c r="B10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C10" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3">
-        <v>12</v>
-      </c>
-      <c r="C11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8</v>
-      </c>
-      <c r="C12" s="3">
-        <v>13</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B13" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>10</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>5</v>
-      </c>
-      <c r="B14" s="3">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>-1</v>
-      </c>
-      <c r="B16" s="3">
-        <v>6</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
+      <c r="A16" s="1">
+        <v>11</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>11</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A17" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
